--- a/Features.xlsx
+++ b/Features.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\Yelerol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\Documents\Yelerol\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Features" sheetId="1" r:id="rId1"/>
+    <sheet name="Icons" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="381">
   <si>
     <t>Wetterdienst + History</t>
   </si>
@@ -84,6 +85,1089 @@
   </si>
   <si>
     <t>Features</t>
+  </si>
+  <si>
+    <t>.icon-glass:before{content:"\f000";}</t>
+  </si>
+  <si>
+    <t>.icon-music:before{content:"\f001";}</t>
+  </si>
+  <si>
+    <t>.icon-search:before{content:"\f002";}</t>
+  </si>
+  <si>
+    <t>.icon-envelope-alt:before{content:"\f003";}</t>
+  </si>
+  <si>
+    <t>.icon-heart:before{content:"\f004";}</t>
+  </si>
+  <si>
+    <t>.icon-star:before{content:"\f005";}</t>
+  </si>
+  <si>
+    <t>.icon-star-empty:before{content:"\f006";}</t>
+  </si>
+  <si>
+    <t>.icon-user:before{content:"\f007";}</t>
+  </si>
+  <si>
+    <t>.icon-film:before{content:"\f008";}</t>
+  </si>
+  <si>
+    <t>.icon-th-large:before{content:"\f009";}</t>
+  </si>
+  <si>
+    <t>.icon-th:before{content:"\f00a";}</t>
+  </si>
+  <si>
+    <t>.icon-th-list:before{content:"\f00b";}</t>
+  </si>
+  <si>
+    <t>.icon-ok:before{content:"\f00c";}</t>
+  </si>
+  <si>
+    <t>.icon-remove:before{content:"\f00d";}</t>
+  </si>
+  <si>
+    <t>.icon-zoom-in:before{content:"\f00e";}</t>
+  </si>
+  <si>
+    <t>.icon-zoom-out:before{content:"\f010";}</t>
+  </si>
+  <si>
+    <t>.icon-power-off:before,.icon-off:before{content:"\f011";}</t>
+  </si>
+  <si>
+    <t>.icon-signal:before{content:"\f012";}</t>
+  </si>
+  <si>
+    <t>.icon-gear:before,.icon-cog:before{content:"\f013";}</t>
+  </si>
+  <si>
+    <t>.icon-trash:before{content:"\f014";}</t>
+  </si>
+  <si>
+    <t>.icon-home:before{content:"\f015";}</t>
+  </si>
+  <si>
+    <t>.icon-file-alt:before{content:"\f016";}</t>
+  </si>
+  <si>
+    <t>.icon-time:before{content:"\f017";}</t>
+  </si>
+  <si>
+    <t>.icon-road:before{content:"\f018";}</t>
+  </si>
+  <si>
+    <t>.icon-download-alt:before{content:"\f019";}</t>
+  </si>
+  <si>
+    <t>.icon-download:before{content:"\f01a";}</t>
+  </si>
+  <si>
+    <t>.icon-upload:before{content:"\f01b";}</t>
+  </si>
+  <si>
+    <t>.icon-inbox:before{content:"\f01c";}</t>
+  </si>
+  <si>
+    <t>.icon-play-circle:before{content:"\f01d";}</t>
+  </si>
+  <si>
+    <t>.icon-rotate-right:before,.icon-repeat:before{content:"\f01e";}</t>
+  </si>
+  <si>
+    <t>.icon-refresh:before{content:"\f021";}</t>
+  </si>
+  <si>
+    <t>.icon-list-alt:before{content:"\f022";}</t>
+  </si>
+  <si>
+    <t>.icon-lock:before{content:"\f023";}</t>
+  </si>
+  <si>
+    <t>.icon-flag:before{content:"\f024";}</t>
+  </si>
+  <si>
+    <t>.icon-headphones:before{content:"\f025";}</t>
+  </si>
+  <si>
+    <t>.icon-volume-off:before{content:"\f026";}</t>
+  </si>
+  <si>
+    <t>.icon-volume-down:before{content:"\f027";}</t>
+  </si>
+  <si>
+    <t>.icon-volume-up:before{content:"\f028";}</t>
+  </si>
+  <si>
+    <t>.icon-qrcode:before{content:"\f029";}</t>
+  </si>
+  <si>
+    <t>.icon-barcode:before{content:"\f02a";}</t>
+  </si>
+  <si>
+    <t>.icon-tag:before{content:"\f02b";}</t>
+  </si>
+  <si>
+    <t>.icon-tags:before{content:"\f02c";}</t>
+  </si>
+  <si>
+    <t>.icon-book:before{content:"\f02d";}</t>
+  </si>
+  <si>
+    <t>.icon-bookmark:before{content:"\f02e";}</t>
+  </si>
+  <si>
+    <t>.icon-print:before{content:"\f02f";}</t>
+  </si>
+  <si>
+    <t>.icon-camera:before{content:"\f030";}</t>
+  </si>
+  <si>
+    <t>.icon-font:before{content:"\f031";}</t>
+  </si>
+  <si>
+    <t>.icon-bold:before{content:"\f032";}</t>
+  </si>
+  <si>
+    <t>.icon-italic:before{content:"\f033";}</t>
+  </si>
+  <si>
+    <t>.icon-text-height:before{content:"\f034";}</t>
+  </si>
+  <si>
+    <t>.icon-text-width:before{content:"\f035";}</t>
+  </si>
+  <si>
+    <t>.icon-align-left:before{content:"\f036";}</t>
+  </si>
+  <si>
+    <t>.icon-align-center:before{content:"\f037";}</t>
+  </si>
+  <si>
+    <t>.icon-align-right:before{content:"\f038";}</t>
+  </si>
+  <si>
+    <t>.icon-align-justify:before{content:"\f039";}</t>
+  </si>
+  <si>
+    <t>.icon-list:before{content:"\f03a";}</t>
+  </si>
+  <si>
+    <t>.icon-indent-left:before{content:"\f03b";}</t>
+  </si>
+  <si>
+    <t>.icon-indent-right:before{content:"\f03c";}</t>
+  </si>
+  <si>
+    <t>.icon-facetime-video:before{content:"\f03d";}</t>
+  </si>
+  <si>
+    <t>.icon-picture:before{content:"\f03e";}</t>
+  </si>
+  <si>
+    <t>.icon-pencil:before{content:"\f040";}</t>
+  </si>
+  <si>
+    <t>.icon-map-marker:before{content:"\f041";}</t>
+  </si>
+  <si>
+    <t>.icon-adjust:before{content:"\f042";}</t>
+  </si>
+  <si>
+    <t>.icon-tint:before{content:"\f043";}</t>
+  </si>
+  <si>
+    <t>.icon-edit:before{content:"\f044";}</t>
+  </si>
+  <si>
+    <t>.icon-share:before{content:"\f045";}</t>
+  </si>
+  <si>
+    <t>.icon-check:before{content:"\f046";}</t>
+  </si>
+  <si>
+    <t>.icon-move:before{content:"\f047";}</t>
+  </si>
+  <si>
+    <t>.icon-step-backward:before{content:"\f048";}</t>
+  </si>
+  <si>
+    <t>.icon-fast-backward:before{content:"\f049";}</t>
+  </si>
+  <si>
+    <t>.icon-backward:before{content:"\f04a";}</t>
+  </si>
+  <si>
+    <t>.icon-play:before{content:"\f04b";}</t>
+  </si>
+  <si>
+    <t>.icon-pause:before{content:"\f04c";}</t>
+  </si>
+  <si>
+    <t>.icon-stop:before{content:"\f04d";}</t>
+  </si>
+  <si>
+    <t>.icon-forward:before{content:"\f04e";}</t>
+  </si>
+  <si>
+    <t>.icon-fast-forward:before{content:"\f050";}</t>
+  </si>
+  <si>
+    <t>.icon-step-forward:before{content:"\f051";}</t>
+  </si>
+  <si>
+    <t>.icon-eject:before{content:"\f052";}</t>
+  </si>
+  <si>
+    <t>.icon-chevron-left:before{content:"\f053";}</t>
+  </si>
+  <si>
+    <t>.icon-chevron-right:before{content:"\f054";}</t>
+  </si>
+  <si>
+    <t>.icon-plus-sign:before{content:"\f055";}</t>
+  </si>
+  <si>
+    <t>.icon-minus-sign:before{content:"\f056";}</t>
+  </si>
+  <si>
+    <t>.icon-remove-sign:before{content:"\f057";}</t>
+  </si>
+  <si>
+    <t>.icon-ok-sign:before{content:"\f058";}</t>
+  </si>
+  <si>
+    <t>.icon-question-sign:before{content:"\f059";}</t>
+  </si>
+  <si>
+    <t>.icon-info-sign:before{content:"\f05a";}</t>
+  </si>
+  <si>
+    <t>.icon-screenshot:before{content:"\f05b";}</t>
+  </si>
+  <si>
+    <t>.icon-remove-circle:before{content:"\f05c";}</t>
+  </si>
+  <si>
+    <t>.icon-ok-circle:before{content:"\f05d";}</t>
+  </si>
+  <si>
+    <t>.icon-ban-circle:before{content:"\f05e";}</t>
+  </si>
+  <si>
+    <t>.icon-arrow-left:before{content:"\f060";}</t>
+  </si>
+  <si>
+    <t>.icon-arrow-right:before{content:"\f061";}</t>
+  </si>
+  <si>
+    <t>.icon-arrow-up:before{content:"\f062";}</t>
+  </si>
+  <si>
+    <t>.icon-arrow-down:before{content:"\f063";}</t>
+  </si>
+  <si>
+    <t>.icon-mail-forward:before,.icon-share-alt:before{content:"\f064";}</t>
+  </si>
+  <si>
+    <t>.icon-resize-full:before{content:"\f065";}</t>
+  </si>
+  <si>
+    <t>.icon-resize-small:before{content:"\f066";}</t>
+  </si>
+  <si>
+    <t>.icon-plus:before{content:"\f067";}</t>
+  </si>
+  <si>
+    <t>.icon-minus:before{content:"\f068";}</t>
+  </si>
+  <si>
+    <t>.icon-asterisk:before{content:"\f069";}</t>
+  </si>
+  <si>
+    <t>.icon-exclamation-sign:before{content:"\f06a";}</t>
+  </si>
+  <si>
+    <t>.icon-gift:before{content:"\f06b";}</t>
+  </si>
+  <si>
+    <t>.icon-leaf:before{content:"\f06c";}</t>
+  </si>
+  <si>
+    <t>.icon-fire:before{content:"\f06d";}</t>
+  </si>
+  <si>
+    <t>.icon-eye-open:before{content:"\f06e";}</t>
+  </si>
+  <si>
+    <t>.icon-eye-close:before{content:"\f070";}</t>
+  </si>
+  <si>
+    <t>.icon-warning-sign:before{content:"\f071";}</t>
+  </si>
+  <si>
+    <t>.icon-plane:before{content:"\f072";}</t>
+  </si>
+  <si>
+    <t>.icon-calendar:before{content:"\f073";}</t>
+  </si>
+  <si>
+    <t>.icon-random:before{content:"\f074";}</t>
+  </si>
+  <si>
+    <t>.icon-comment:before{content:"\f075";}</t>
+  </si>
+  <si>
+    <t>.icon-magnet:before{content:"\f076";}</t>
+  </si>
+  <si>
+    <t>.icon-chevron-up:before{content:"\f077";}</t>
+  </si>
+  <si>
+    <t>.icon-chevron-down:before{content:"\f078";}</t>
+  </si>
+  <si>
+    <t>.icon-retweet:before{content:"\f079";}</t>
+  </si>
+  <si>
+    <t>.icon-shopping-cart:before{content:"\f07a";}</t>
+  </si>
+  <si>
+    <t>.icon-folder-close:before{content:"\f07b";}</t>
+  </si>
+  <si>
+    <t>.icon-folder-open:before{content:"\f07c";}</t>
+  </si>
+  <si>
+    <t>.icon-resize-vertical:before{content:"\f07d";}</t>
+  </si>
+  <si>
+    <t>.icon-resize-horizontal:before{content:"\f07e";}</t>
+  </si>
+  <si>
+    <t>.icon-bar-chart:before{content:"\f080";}</t>
+  </si>
+  <si>
+    <t>.icon-twitter-sign:before{content:"\f081";}</t>
+  </si>
+  <si>
+    <t>.icon-facebook-sign:before{content:"\f082";}</t>
+  </si>
+  <si>
+    <t>.icon-camera-retro:before{content:"\f083";}</t>
+  </si>
+  <si>
+    <t>.icon-key:before{content:"\f084";}</t>
+  </si>
+  <si>
+    <t>.icon-gears:before,.icon-cogs:before{content:"\f085";}</t>
+  </si>
+  <si>
+    <t>.icon-comments:before{content:"\f086";}</t>
+  </si>
+  <si>
+    <t>.icon-thumbs-up-alt:before{content:"\f087";}</t>
+  </si>
+  <si>
+    <t>.icon-thumbs-down-alt:before{content:"\f088";}</t>
+  </si>
+  <si>
+    <t>.icon-star-half:before{content:"\f089";}</t>
+  </si>
+  <si>
+    <t>.icon-heart-empty:before{content:"\f08a";}</t>
+  </si>
+  <si>
+    <t>.icon-signout:before{content:"\f08b";}</t>
+  </si>
+  <si>
+    <t>.icon-linkedin-sign:before{content:"\f08c";}</t>
+  </si>
+  <si>
+    <t>.icon-pushpin:before{content:"\f08d";}</t>
+  </si>
+  <si>
+    <t>.icon-external-link:before{content:"\f08e";}</t>
+  </si>
+  <si>
+    <t>.icon-signin:before{content:"\f090";}</t>
+  </si>
+  <si>
+    <t>.icon-trophy:before{content:"\f091";}</t>
+  </si>
+  <si>
+    <t>.icon-github-sign:before{content:"\f092";}</t>
+  </si>
+  <si>
+    <t>.icon-upload-alt:before{content:"\f093";}</t>
+  </si>
+  <si>
+    <t>.icon-lemon:before{content:"\f094";}</t>
+  </si>
+  <si>
+    <t>.icon-phone:before{content:"\f095";}</t>
+  </si>
+  <si>
+    <t>.icon-unchecked:before,.icon-check-empty:before{content:"\f096";}</t>
+  </si>
+  <si>
+    <t>.icon-bookmark-empty:before{content:"\f097";}</t>
+  </si>
+  <si>
+    <t>.icon-phone-sign:before{content:"\f098";}</t>
+  </si>
+  <si>
+    <t>.icon-twitter:before{content:"\f099";}</t>
+  </si>
+  <si>
+    <t>.icon-facebook:before{content:"\f09a";}</t>
+  </si>
+  <si>
+    <t>.icon-github:before{content:"\f09b";}</t>
+  </si>
+  <si>
+    <t>.icon-unlock:before{content:"\f09c";}</t>
+  </si>
+  <si>
+    <t>.icon-credit-card:before{content:"\f09d";}</t>
+  </si>
+  <si>
+    <t>.icon-rss:before{content:"\f09e";}</t>
+  </si>
+  <si>
+    <t>.icon-hdd:before{content:"\f0a0";}</t>
+  </si>
+  <si>
+    <t>.icon-bullhorn:before{content:"\f0a1";}</t>
+  </si>
+  <si>
+    <t>.icon-bell:before{content:"\f0a2";}</t>
+  </si>
+  <si>
+    <t>.icon-certificate:before{content:"\f0a3";}</t>
+  </si>
+  <si>
+    <t>.icon-hand-right:before{content:"\f0a4";}</t>
+  </si>
+  <si>
+    <t>.icon-hand-left:before{content:"\f0a5";}</t>
+  </si>
+  <si>
+    <t>.icon-hand-up:before{content:"\f0a6";}</t>
+  </si>
+  <si>
+    <t>.icon-hand-down:before{content:"\f0a7";}</t>
+  </si>
+  <si>
+    <t>.icon-circle-arrow-left:before{content:"\f0a8";}</t>
+  </si>
+  <si>
+    <t>.icon-circle-arrow-right:before{content:"\f0a9";}</t>
+  </si>
+  <si>
+    <t>.icon-circle-arrow-up:before{content:"\f0aa";}</t>
+  </si>
+  <si>
+    <t>.icon-circle-arrow-down:before{content:"\f0ab";}</t>
+  </si>
+  <si>
+    <t>.icon-globe:before{content:"\f0ac";}</t>
+  </si>
+  <si>
+    <t>.icon-wrench:before{content:"\f0ad";}</t>
+  </si>
+  <si>
+    <t>.icon-tasks:before{content:"\f0ae";}</t>
+  </si>
+  <si>
+    <t>.icon-filter:before{content:"\f0b0";}</t>
+  </si>
+  <si>
+    <t>.icon-briefcase:before{content:"\f0b1";}</t>
+  </si>
+  <si>
+    <t>.icon-fullscreen:before{content:"\f0b2";}</t>
+  </si>
+  <si>
+    <t>.icon-group:before{content:"\f0c0";}</t>
+  </si>
+  <si>
+    <t>.icon-link:before{content:"\f0c1";}</t>
+  </si>
+  <si>
+    <t>.icon-cloud:before{content:"\f0c2";}</t>
+  </si>
+  <si>
+    <t>.icon-beaker:before{content:"\f0c3";}</t>
+  </si>
+  <si>
+    <t>.icon-cut:before{content:"\f0c4";}</t>
+  </si>
+  <si>
+    <t>.icon-copy:before{content:"\f0c5";}</t>
+  </si>
+  <si>
+    <t>.icon-paperclip:before,.icon-paper-clip:before{content:"\f0c6";}</t>
+  </si>
+  <si>
+    <t>.icon-save:before{content:"\f0c7";}</t>
+  </si>
+  <si>
+    <t>.icon-sign-blank:before{content:"\f0c8";}</t>
+  </si>
+  <si>
+    <t>.icon-reorder:before{content:"\f0c9";}</t>
+  </si>
+  <si>
+    <t>.icon-list-ul:before{content:"\f0ca";}</t>
+  </si>
+  <si>
+    <t>.icon-list-ol:before{content:"\f0cb";}</t>
+  </si>
+  <si>
+    <t>.icon-strikethrough:before{content:"\f0cc";}</t>
+  </si>
+  <si>
+    <t>.icon-underline:before{content:"\f0cd";}</t>
+  </si>
+  <si>
+    <t>.icon-table:before{content:"\f0ce";}</t>
+  </si>
+  <si>
+    <t>.icon-magic:before{content:"\f0d0";}</t>
+  </si>
+  <si>
+    <t>.icon-truck:before{content:"\f0d1";}</t>
+  </si>
+  <si>
+    <t>.icon-pinterest:before{content:"\f0d2";}</t>
+  </si>
+  <si>
+    <t>.icon-pinterest-sign:before{content:"\f0d3";}</t>
+  </si>
+  <si>
+    <t>.icon-google-plus-sign:before{content:"\f0d4";}</t>
+  </si>
+  <si>
+    <t>.icon-google-plus:before{content:"\f0d5";}</t>
+  </si>
+  <si>
+    <t>.icon-money:before{content:"\f0d6";}</t>
+  </si>
+  <si>
+    <t>.icon-caret-down:before{content:"\f0d7";}</t>
+  </si>
+  <si>
+    <t>.icon-caret-up:before{content:"\f0d8";}</t>
+  </si>
+  <si>
+    <t>.icon-caret-left:before{content:"\f0d9";}</t>
+  </si>
+  <si>
+    <t>.icon-caret-right:before{content:"\f0da";}</t>
+  </si>
+  <si>
+    <t>.icon-columns:before{content:"\f0db";}</t>
+  </si>
+  <si>
+    <t>.icon-sort:before{content:"\f0dc";}</t>
+  </si>
+  <si>
+    <t>.icon-sort-down:before{content:"\f0dd";}</t>
+  </si>
+  <si>
+    <t>.icon-sort-up:before{content:"\f0de";}</t>
+  </si>
+  <si>
+    <t>.icon-envelope:before{content:"\f0e0";}</t>
+  </si>
+  <si>
+    <t>.icon-linkedin:before{content:"\f0e1";}</t>
+  </si>
+  <si>
+    <t>.icon-rotate-left:before,.icon-undo:before{content:"\f0e2";}</t>
+  </si>
+  <si>
+    <t>.icon-legal:before{content:"\f0e3";}</t>
+  </si>
+  <si>
+    <t>.icon-dashboard:before{content:"\f0e4";}</t>
+  </si>
+  <si>
+    <t>.icon-comment-alt:before{content:"\f0e5";}</t>
+  </si>
+  <si>
+    <t>.icon-comments-alt:before{content:"\f0e6";}</t>
+  </si>
+  <si>
+    <t>.icon-bolt:before{content:"\f0e7";}</t>
+  </si>
+  <si>
+    <t>.icon-sitemap:before{content:"\f0e8";}</t>
+  </si>
+  <si>
+    <t>.icon-umbrella:before{content:"\f0e9";}</t>
+  </si>
+  <si>
+    <t>.icon-paste:before{content:"\f0ea";}</t>
+  </si>
+  <si>
+    <t>.icon-lightbulb:before{content:"\f0eb";}</t>
+  </si>
+  <si>
+    <t>.icon-exchange:before{content:"\f0ec";}</t>
+  </si>
+  <si>
+    <t>.icon-cloud-download:before{content:"\f0ed";}</t>
+  </si>
+  <si>
+    <t>.icon-cloud-upload:before{content:"\f0ee";}</t>
+  </si>
+  <si>
+    <t>.icon-user-md:before{content:"\f0f0";}</t>
+  </si>
+  <si>
+    <t>.icon-stethoscope:before{content:"\f0f1";}</t>
+  </si>
+  <si>
+    <t>.icon-suitcase:before{content:"\f0f2";}</t>
+  </si>
+  <si>
+    <t>.icon-bell-alt:before{content:"\f0f3";}</t>
+  </si>
+  <si>
+    <t>.icon-coffee:before{content:"\f0f4";}</t>
+  </si>
+  <si>
+    <t>.icon-food:before{content:"\f0f5";}</t>
+  </si>
+  <si>
+    <t>.icon-file-text-alt:before{content:"\f0f6";}</t>
+  </si>
+  <si>
+    <t>.icon-building:before{content:"\f0f7";}</t>
+  </si>
+  <si>
+    <t>.icon-hospital:before{content:"\f0f8";}</t>
+  </si>
+  <si>
+    <t>.icon-ambulance:before{content:"\f0f9";}</t>
+  </si>
+  <si>
+    <t>.icon-medkit:before{content:"\f0fa";}</t>
+  </si>
+  <si>
+    <t>.icon-fighter-jet:before{content:"\f0fb";}</t>
+  </si>
+  <si>
+    <t>.icon-beer:before{content:"\f0fc";}</t>
+  </si>
+  <si>
+    <t>.icon-h-sign:before{content:"\f0fd";}</t>
+  </si>
+  <si>
+    <t>.icon-plus-sign-alt:before{content:"\f0fe";}</t>
+  </si>
+  <si>
+    <t>.icon-double-angle-left:before{content:"\f100";}</t>
+  </si>
+  <si>
+    <t>.icon-double-angle-right:before{content:"\f101";}</t>
+  </si>
+  <si>
+    <t>.icon-double-angle-up:before{content:"\f102";}</t>
+  </si>
+  <si>
+    <t>.icon-double-angle-down:before{content:"\f103";}</t>
+  </si>
+  <si>
+    <t>.icon-angle-left:before{content:"\f104";}</t>
+  </si>
+  <si>
+    <t>.icon-angle-right:before{content:"\f105";}</t>
+  </si>
+  <si>
+    <t>.icon-angle-up:before{content:"\f106";}</t>
+  </si>
+  <si>
+    <t>.icon-angle-down:before{content:"\f107";}</t>
+  </si>
+  <si>
+    <t>.icon-desktop:before{content:"\f108";}</t>
+  </si>
+  <si>
+    <t>.icon-laptop:before{content:"\f109";}</t>
+  </si>
+  <si>
+    <t>.icon-tablet:before{content:"\f10a";}</t>
+  </si>
+  <si>
+    <t>.icon-mobile-phone:before{content:"\f10b";}</t>
+  </si>
+  <si>
+    <t>.icon-circle-blank:before{content:"\f10c";}</t>
+  </si>
+  <si>
+    <t>.icon-quote-left:before{content:"\f10d";}</t>
+  </si>
+  <si>
+    <t>.icon-quote-right:before{content:"\f10e";}</t>
+  </si>
+  <si>
+    <t>.icon-spinner:before{content:"\f110";}</t>
+  </si>
+  <si>
+    <t>.icon-circle:before{content:"\f111";}</t>
+  </si>
+  <si>
+    <t>.icon-mail-reply:before,.icon-reply:before{content:"\f112";}</t>
+  </si>
+  <si>
+    <t>.icon-github-alt:before{content:"\f113";}</t>
+  </si>
+  <si>
+    <t>.icon-folder-close-alt:before{content:"\f114";}</t>
+  </si>
+  <si>
+    <t>.icon-folder-open-alt:before{content:"\f115";}</t>
+  </si>
+  <si>
+    <t>.icon-expand-alt:before{content:"\f116";}</t>
+  </si>
+  <si>
+    <t>.icon-collapse-alt:before{content:"\f117";}</t>
+  </si>
+  <si>
+    <t>.icon-smile:before{content:"\f118";}</t>
+  </si>
+  <si>
+    <t>.icon-frown:before{content:"\f119";}</t>
+  </si>
+  <si>
+    <t>.icon-meh:before{content:"\f11a";}</t>
+  </si>
+  <si>
+    <t>.icon-gamepad:before{content:"\f11b";}</t>
+  </si>
+  <si>
+    <t>.icon-keyboard:before{content:"\f11c";}</t>
+  </si>
+  <si>
+    <t>.icon-flag-alt:before{content:"\f11d";}</t>
+  </si>
+  <si>
+    <t>.icon-flag-checkered:before{content:"\f11e";}</t>
+  </si>
+  <si>
+    <t>.icon-terminal:before{content:"\f120";}</t>
+  </si>
+  <si>
+    <t>.icon-code:before{content:"\f121";}</t>
+  </si>
+  <si>
+    <t>.icon-reply-all:before{content:"\f122";}</t>
+  </si>
+  <si>
+    <t>.icon-mail-reply-all:before{content:"\f122";}</t>
+  </si>
+  <si>
+    <t>.icon-star-half-full:before,.icon-star-half-empty:before{content:"\f123";}</t>
+  </si>
+  <si>
+    <t>.icon-location-arrow:before{content:"\f124";}</t>
+  </si>
+  <si>
+    <t>.icon-crop:before{content:"\f125";}</t>
+  </si>
+  <si>
+    <t>.icon-code-fork:before{content:"\f126";}</t>
+  </si>
+  <si>
+    <t>.icon-unlink:before{content:"\f127";}</t>
+  </si>
+  <si>
+    <t>.icon-question:before{content:"\f128";}</t>
+  </si>
+  <si>
+    <t>.icon-info:before{content:"\f129";}</t>
+  </si>
+  <si>
+    <t>.icon-exclamation:before{content:"\f12a";}</t>
+  </si>
+  <si>
+    <t>.icon-superscript:before{content:"\f12b";}</t>
+  </si>
+  <si>
+    <t>.icon-subscript:before{content:"\f12c";}</t>
+  </si>
+  <si>
+    <t>.icon-eraser:before{content:"\f12d";}</t>
+  </si>
+  <si>
+    <t>.icon-puzzle-piece:before{content:"\f12e";}</t>
+  </si>
+  <si>
+    <t>.icon-microphone:before{content:"\f130";}</t>
+  </si>
+  <si>
+    <t>.icon-microphone-off:before{content:"\f131";}</t>
+  </si>
+  <si>
+    <t>.icon-shield:before{content:"\f132";}</t>
+  </si>
+  <si>
+    <t>.icon-calendar-empty:before{content:"\f133";}</t>
+  </si>
+  <si>
+    <t>.icon-fire-extinguisher:before{content:"\f134";}</t>
+  </si>
+  <si>
+    <t>.icon-rocket:before{content:"\f135";}</t>
+  </si>
+  <si>
+    <t>.icon-maxcdn:before{content:"\f136";}</t>
+  </si>
+  <si>
+    <t>.icon-chevron-sign-left:before{content:"\f137";}</t>
+  </si>
+  <si>
+    <t>.icon-chevron-sign-right:before{content:"\f138";}</t>
+  </si>
+  <si>
+    <t>.icon-chevron-sign-up:before{content:"\f139";}</t>
+  </si>
+  <si>
+    <t>.icon-chevron-sign-down:before{content:"\f13a";}</t>
+  </si>
+  <si>
+    <t>.icon-html5:before{content:"\f13b";}</t>
+  </si>
+  <si>
+    <t>.icon-css3:before{content:"\f13c";}</t>
+  </si>
+  <si>
+    <t>.icon-anchor:before{content:"\f13d";}</t>
+  </si>
+  <si>
+    <t>.icon-unlock-alt:before{content:"\f13e";}</t>
+  </si>
+  <si>
+    <t>.icon-bullseye:before{content:"\f140";}</t>
+  </si>
+  <si>
+    <t>.icon-ellipsis-horizontal:before{content:"\f141";}</t>
+  </si>
+  <si>
+    <t>.icon-ellipsis-vertical:before{content:"\f142";}</t>
+  </si>
+  <si>
+    <t>.icon-rss-sign:before{content:"\f143";}</t>
+  </si>
+  <si>
+    <t>.icon-play-sign:before{content:"\f144";}</t>
+  </si>
+  <si>
+    <t>.icon-ticket:before{content:"\f145";}</t>
+  </si>
+  <si>
+    <t>.icon-minus-sign-alt:before{content:"\f146";}</t>
+  </si>
+  <si>
+    <t>.icon-check-minus:before{content:"\f147";}</t>
+  </si>
+  <si>
+    <t>.icon-level-up:before{content:"\f148";}</t>
+  </si>
+  <si>
+    <t>.icon-level-down:before{content:"\f149";}</t>
+  </si>
+  <si>
+    <t>.icon-check-sign:before{content:"\f14a";}</t>
+  </si>
+  <si>
+    <t>.icon-edit-sign:before{content:"\f14b";}</t>
+  </si>
+  <si>
+    <t>.icon-external-link-sign:before{content:"\f14c";}</t>
+  </si>
+  <si>
+    <t>.icon-share-sign:before{content:"\f14d";}</t>
+  </si>
+  <si>
+    <t>.icon-compass:before{content:"\f14e";}</t>
+  </si>
+  <si>
+    <t>.icon-collapse:before{content:"\f150";}</t>
+  </si>
+  <si>
+    <t>.icon-collapse-top:before{content:"\f151";}</t>
+  </si>
+  <si>
+    <t>.icon-expand:before{content:"\f152";}</t>
+  </si>
+  <si>
+    <t>.icon-euro:before,.icon-eur:before{content:"\f153";}</t>
+  </si>
+  <si>
+    <t>.icon-gbp:before{content:"\f154";}</t>
+  </si>
+  <si>
+    <t>.icon-dollar:before,.icon-usd:before{content:"\f155";}</t>
+  </si>
+  <si>
+    <t>.icon-rupee:before,.icon-inr:before{content:"\f156";}</t>
+  </si>
+  <si>
+    <t>.icon-yen:before,.icon-jpy:before{content:"\f157";}</t>
+  </si>
+  <si>
+    <t>.icon-renminbi:before,.icon-cny:before{content:"\f158";}</t>
+  </si>
+  <si>
+    <t>.icon-won:before,.icon-krw:before{content:"\f159";}</t>
+  </si>
+  <si>
+    <t>.icon-bitcoin:before,.icon-btc:before{content:"\f15a";}</t>
+  </si>
+  <si>
+    <t>.icon-file:before{content:"\f15b";}</t>
+  </si>
+  <si>
+    <t>.icon-file-text:before{content:"\f15c";}</t>
+  </si>
+  <si>
+    <t>.icon-sort-by-alphabet:before{content:"\f15d";}</t>
+  </si>
+  <si>
+    <t>.icon-sort-by-alphabet-alt:before{content:"\f15e";}</t>
+  </si>
+  <si>
+    <t>.icon-sort-by-attributes:before{content:"\f160";}</t>
+  </si>
+  <si>
+    <t>.icon-sort-by-attributes-alt:before{content:"\f161";}</t>
+  </si>
+  <si>
+    <t>.icon-sort-by-order:before{content:"\f162";}</t>
+  </si>
+  <si>
+    <t>.icon-sort-by-order-alt:before{content:"\f163";}</t>
+  </si>
+  <si>
+    <t>.icon-thumbs-up:before{content:"\f164";}</t>
+  </si>
+  <si>
+    <t>.icon-thumbs-down:before{content:"\f165";}</t>
+  </si>
+  <si>
+    <t>.icon-youtube-sign:before{content:"\f166";}</t>
+  </si>
+  <si>
+    <t>.icon-youtube:before{content:"\f167";}</t>
+  </si>
+  <si>
+    <t>.icon-xing:before{content:"\f168";}</t>
+  </si>
+  <si>
+    <t>.icon-xing-sign:before{content:"\f169";}</t>
+  </si>
+  <si>
+    <t>.icon-youtube-play:before{content:"\f16a";}</t>
+  </si>
+  <si>
+    <t>.icon-dropbox:before{content:"\f16b";}</t>
+  </si>
+  <si>
+    <t>.icon-stackexchange:before{content:"\f16c";}</t>
+  </si>
+  <si>
+    <t>.icon-instagram:before{content:"\f16d";}</t>
+  </si>
+  <si>
+    <t>.icon-flickr:before{content:"\f16e";}</t>
+  </si>
+  <si>
+    <t>.icon-adn:before{content:"\f170";}</t>
+  </si>
+  <si>
+    <t>.icon-bitbucket:before{content:"\f171";}</t>
+  </si>
+  <si>
+    <t>.icon-bitbucket-sign:before{content:"\f172";}</t>
+  </si>
+  <si>
+    <t>.icon-tumblr:before{content:"\f173";}</t>
+  </si>
+  <si>
+    <t>.icon-tumblr-sign:before{content:"\f174";}</t>
+  </si>
+  <si>
+    <t>.icon-long-arrow-down:before{content:"\f175";}</t>
+  </si>
+  <si>
+    <t>.icon-long-arrow-up:before{content:"\f176";}</t>
+  </si>
+  <si>
+    <t>.icon-long-arrow-left:before{content:"\f177";}</t>
+  </si>
+  <si>
+    <t>.icon-long-arrow-right:before{content:"\f178";}</t>
+  </si>
+  <si>
+    <t>.icon-apple:before{content:"\f179";}</t>
+  </si>
+  <si>
+    <t>.icon-windows:before{content:"\f17a";}</t>
+  </si>
+  <si>
+    <t>.icon-android:before{content:"\f17b";}</t>
+  </si>
+  <si>
+    <t>.icon-linux:before{content:"\f17c";}</t>
+  </si>
+  <si>
+    <t>.icon-dribbble:before{content:"\f17d";}</t>
+  </si>
+  <si>
+    <t>.icon-skype:before{content:"\f17e";}</t>
+  </si>
+  <si>
+    <t>.icon-foursquare:before{content:"\f180";}</t>
+  </si>
+  <si>
+    <t>.icon-trello:before{content:"\f181";}</t>
+  </si>
+  <si>
+    <t>.icon-female:before{content:"\f182";}</t>
+  </si>
+  <si>
+    <t>.icon-male:before{content:"\f183";}</t>
+  </si>
+  <si>
+    <t>.icon-gittip:before{content:"\f184";}</t>
+  </si>
+  <si>
+    <t>.icon-sun:before{content:"\f185";}</t>
+  </si>
+  <si>
+    <t>.icon-moon:before{content:"\f186";}</t>
+  </si>
+  <si>
+    <t>.icon-archive:before{content:"\f187";}</t>
+  </si>
+  <si>
+    <t>.icon-bug:before{content:"\f188";}</t>
+  </si>
+  <si>
+    <t>.icon-vk:before{content:"\f189";}</t>
+  </si>
+  <si>
+    <t>.icon-weibo:before{content:"\f18a";}</t>
+  </si>
+  <si>
+    <t>.icon-renren:before{content:"\f18b";}</t>
   </si>
 </sst>
 </file>
@@ -416,7 +1500,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,8 +1677,1835 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A361"/>
+  <sheetViews>
+    <sheetView topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="67.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A361">
+    <sortCondition ref="A172"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>